--- a/model/results/mix4_ggpos_h2pos/v_demand.xlsx
+++ b/model/results/mix4_ggpos_h2pos/v_demand.xlsx
@@ -1617,10 +1617,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333274</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1642,10 +1642,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333319</v>
+        <v>4177843.517006803</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>2966989.816326529</v>
       </c>
     </row>
     <row r="5">
@@ -1667,13 +1667,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962962</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444443</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407409</v>
       </c>
       <c r="C6" t="n">
         <v>2186916.666666667</v>
@@ -1792,22 +1792,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265305</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353746</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>362640.8163265323</v>
       </c>
     </row>
     <row r="11">
@@ -1820,19 +1820,19 @@
         <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>58022.53061224493</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965985</v>
+        <v>1963.537414965994</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>58022.53061224486</v>
       </c>
     </row>
     <row r="12">
@@ -1845,10 +1845,10 @@
         <v>129053.4965986394</v>
       </c>
       <c r="C12" t="n">
-        <v>29011.26530612243</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>981.7687074829929</v>
+        <v>981.768707482997</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1857,7 +1857,7 @@
         <v>106031.0204081633</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>29011.26530612243</v>
       </c>
     </row>
     <row r="13">
@@ -1867,22 +1867,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>47143.30612244896</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659863</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>47143.3061224492</v>
       </c>
     </row>
     <row r="14">
@@ -1898,7 +1898,7 @@
         <v>32637.67346938773</v>
       </c>
       <c r="D14" t="n">
-        <v>1104.489795918367</v>
+        <v>1104.489795918372</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1917,22 +1917,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673477</v>
       </c>
       <c r="C15" t="n">
-        <v>163188.3673469387</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591834</v>
+        <v>5522.448979591858</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959175</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>163188.367346937</v>
       </c>
     </row>
     <row r="16">
@@ -1942,22 +1942,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986394</v>
       </c>
       <c r="C16" t="n">
-        <v>290112.6530612244</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074829926</v>
+        <v>9817.68707482997</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>290112.6530612243</v>
       </c>
     </row>
     <row r="17">
@@ -1967,19 +1967,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.612244898</v>
       </c>
       <c r="C17" t="n">
-        <v>108792.2448979592</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061223</v>
+        <v>3681.632653061239</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1992,22 +1992,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
-        <v>36264.08163265305</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>36264.08163265323</v>
       </c>
     </row>
     <row r="19">
@@ -2020,10 +2020,10 @@
         <v>838847.7278911564</v>
       </c>
       <c r="C19" t="n">
-        <v>188573.2244897959</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6381.496598639453</v>
+        <v>6381.496598639481</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2032,7 +2032,7 @@
         <v>689201.6326530612</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>188573.2244897958</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2048,7 @@
         <v>3626.408163265304</v>
       </c>
       <c r="D20" t="n">
-        <v>122.7210884353741</v>
+        <v>122.7210884353746</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2067,13 +2067,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>97913.02040816324</v>
+        <v>97913.0204081632</v>
       </c>
       <c r="D21" t="n">
-        <v>3313.4693877551</v>
+        <v>3313.469387755115</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2092,22 +2092,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
-        <v>72528.1632653061</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="23">
@@ -2117,22 +2117,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476364</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>25384.85714285726</v>
       </c>
     </row>
     <row r="24">
@@ -2142,13 +2142,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709794.2312925169</v>
+        <v>709794.231292517</v>
       </c>
       <c r="C24" t="n">
-        <v>159561.9591836734</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5399.72789115646</v>
+        <v>5399.727891156484</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2157,7 +2157,7 @@
         <v>583170.6122448979</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>159561.9591836733</v>
       </c>
     </row>
     <row r="25">
@@ -2167,13 +2167,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596872.4217687075</v>
+        <v>596872.4217687076</v>
       </c>
       <c r="C25" t="n">
-        <v>134177.1020408163</v>
+        <v>134177.1020408162</v>
       </c>
       <c r="D25" t="n">
-        <v>4540.680272108842</v>
+        <v>4540.680272108862</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2192,22 +2192,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
-        <v>72528.1632653061</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="27">
@@ -2220,10 +2220,10 @@
         <v>1613.168707482993</v>
       </c>
       <c r="C27" t="n">
-        <v>362.6408163265303</v>
+        <v>362.6408163265309</v>
       </c>
       <c r="D27" t="n">
-        <v>12.27210884353741</v>
+        <v>12.27210884353746</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2245,10 +2245,10 @@
         <v>8065.843537414965</v>
       </c>
       <c r="C28" t="n">
-        <v>1813.204081632652</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61.36054421768706</v>
+        <v>61.36054421768731</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>6626.938775510203</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1813.204081632652</v>
       </c>
     </row>
     <row r="29">
@@ -2267,22 +2267,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979592</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918366</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224489</v>
+        <v>1472.653061224495</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>43516.89795918364</v>
       </c>
     </row>
     <row r="30">
@@ -2295,10 +2295,10 @@
         <v>48395.06122448979</v>
       </c>
       <c r="C30" t="n">
-        <v>10879.22448979591</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>368.1632653061224</v>
+        <v>368.1632653061238</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>39761.63265306122</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10879.22448979591</v>
       </c>
     </row>
     <row r="31">
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204082</v>
       </c>
       <c r="C31" t="n">
-        <v>97913.02040816324</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3313.4693877551</v>
+        <v>3313.469387755115</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>97913.0204081632</v>
       </c>
     </row>
     <row r="32">
@@ -2342,13 +2342,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96790.12244897957</v>
+        <v>96790.12244897959</v>
       </c>
       <c r="C32" t="n">
-        <v>21758.44897959182</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>736.3265306122447</v>
+        <v>736.3265306122477</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2357,7 +2357,7 @@
         <v>79523.26530612244</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21758.44897959182</v>
       </c>
     </row>
     <row r="33">
@@ -2370,16 +2370,16 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="D33" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -2392,19 +2392,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444445</v>
+        <v>93644.44444444451</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555556</v>
+        <v>86955.55555555562</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333333</v>
+        <v>401333.3333333335</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2417,22 +2417,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -2442,19 +2442,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -2492,19 +2492,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187288.8888888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D38" t="n">
-        <v>173911.1111111111</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>802666.6666666666</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -2517,19 +2517,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -2545,19 +2545,19 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333333</v>
+        <v>130433.3333333334</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000</v>
+        <v>602000.0000000003</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333334</v>
       </c>
     </row>
     <row r="41">
@@ -2567,19 +2567,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -2592,22 +2592,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="43">
@@ -2617,22 +2617,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
   </sheetData>
@@ -2693,10 +2693,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333335</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>264090.8390022081</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>6880742.494331066</v>
       </c>
     </row>
     <row r="4">
@@ -2743,10 +2743,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>2326153.741496585</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4818679.591836734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2768,13 +2768,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C6" t="n">
         <v>2186916.666666667</v>
@@ -2893,19 +2893,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265304</v>
+        <v>362640.8163265323</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353766</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2921,16 +2921,16 @@
         <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>58022.53061224493</v>
+        <v>58022.53061224486</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965995</v>
+        <v>1963.537414965986</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2968,19 +2968,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>47143.30612244895</v>
+        <v>47143.3061224492</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659864</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -3018,19 +3018,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673477</v>
       </c>
       <c r="C15" t="n">
-        <v>163188.3673469387</v>
+        <v>163188.367346937</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591561</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959175</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3043,22 +3043,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986394</v>
       </c>
       <c r="C16" t="n">
-        <v>290112.6530612252</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074830046</v>
+        <v>9817.68707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>290112.6530612243</v>
       </c>
     </row>
     <row r="17">
@@ -3068,19 +3068,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.612244898</v>
       </c>
       <c r="C17" t="n">
-        <v>108792.2448979595</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061268</v>
+        <v>3681.632653061223</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -3093,22 +3093,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
-        <v>36264.08163265303</v>
+        <v>36264.08163265323</v>
       </c>
     </row>
     <row r="19">
@@ -3146,7 +3146,7 @@
         <v>16131.68707482993</v>
       </c>
       <c r="C20" t="n">
-        <v>3626.408163265304</v>
+        <v>3626.408163265309</v>
       </c>
       <c r="D20" t="n">
         <v>122.7210884353741</v>
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>97913.02040816321</v>
+        <v>97913.0204081632</v>
       </c>
       <c r="D21" t="n">
         <v>3313.469387755101</v>
@@ -3193,22 +3193,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="23">
@@ -3218,19 +3218,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>25384.85714285726</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476364</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709794.2312925169</v>
+        <v>709794.231292517</v>
       </c>
       <c r="C24" t="n">
-        <v>159561.9591836734</v>
+        <v>159561.9591836733</v>
       </c>
       <c r="D24" t="n">
         <v>5399.727891156461</v>
@@ -3268,7 +3268,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596872.4217687075</v>
+        <v>596872.4217687076</v>
       </c>
       <c r="C25" t="n">
         <v>134177.1020408162</v>
@@ -3293,22 +3293,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="27">
@@ -3318,19 +3318,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1613.168707482993</v>
+        <v>1613.168707482995</v>
       </c>
       <c r="C27" t="n">
-        <v>362.6408163265304</v>
+        <v>362.6408163265277</v>
       </c>
       <c r="D27" t="n">
-        <v>12.27210884353741</v>
+        <v>12.27210884353697</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>1325.387755102041</v>
+        <v>1325.38775510204</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -3343,19 +3343,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8065.843537414965</v>
+        <v>8065.843537414974</v>
       </c>
       <c r="C28" t="n">
-        <v>1813.204081632652</v>
+        <v>1813.204081632638</v>
       </c>
       <c r="D28" t="n">
-        <v>61.36054421768706</v>
+        <v>61.36054421768483</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6626.938775510203</v>
+        <v>6626.938775510199</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -3368,19 +3368,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979592</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918375</v>
+        <v>43516.89795918364</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224503</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -3399,7 +3399,7 @@
         <v>10879.22448979591</v>
       </c>
       <c r="D30" t="n">
-        <v>368.1632653061224</v>
+        <v>368.1632653061223</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -3418,10 +3418,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204082</v>
       </c>
       <c r="C31" t="n">
-        <v>97913.02040816321</v>
+        <v>97913.0204081632</v>
       </c>
       <c r="D31" t="n">
         <v>3313.469387755101</v>
@@ -3443,13 +3443,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96790.12244897957</v>
+        <v>96790.12244897959</v>
       </c>
       <c r="C32" t="n">
         <v>21758.44897959182</v>
       </c>
       <c r="D32" t="n">
-        <v>736.3265306122447</v>
+        <v>736.3265306122446</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3518,19 +3518,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3546,7 +3546,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -3558,7 +3558,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="37">
@@ -3621,7 +3621,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -3633,7 +3633,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="40">
@@ -3797,7 +3797,7 @@
         <v>793870.3703703703</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333335</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -3819,10 +3819,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4147111.458049824</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333331</v>
+        <v>2997721.875283449</v>
       </c>
     </row>
     <row r="4">
@@ -3844,10 +3844,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333319</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3894,22 +3894,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
         <v>2186916.666666667</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3994,19 +3994,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265304</v>
+        <v>362640.8163265323</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353766</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -4022,19 +4022,19 @@
         <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>58022.53061224493</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965995</v>
+        <v>1963.537414965986</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>58022.53061224486</v>
       </c>
     </row>
     <row r="12">
@@ -4047,7 +4047,7 @@
         <v>129053.4965986394</v>
       </c>
       <c r="C12" t="n">
-        <v>29011.26530612243</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>981.7687074829929</v>
@@ -4059,7 +4059,7 @@
         <v>106031.0204081633</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>29011.26530612243</v>
       </c>
     </row>
     <row r="13">
@@ -4069,22 +4069,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>47143.30612244895</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659864</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>47143.3061224492</v>
       </c>
     </row>
     <row r="14">
@@ -4097,7 +4097,7 @@
         <v>145185.1836734694</v>
       </c>
       <c r="C14" t="n">
-        <v>32637.67346938773</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>1104.489795918367</v>
@@ -4109,7 +4109,7 @@
         <v>119284.8979591837</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>32637.67346938773</v>
       </c>
     </row>
     <row r="15">
@@ -4119,19 +4119,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673477</v>
       </c>
       <c r="C15" t="n">
-        <v>163188.3673469387</v>
+        <v>163188.367346937</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591561</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959175</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -4144,22 +4144,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986396</v>
       </c>
       <c r="C16" t="n">
-        <v>290112.6530612252</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074830046</v>
+        <v>9817.687074829571</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>290112.6530612221</v>
       </c>
     </row>
     <row r="17">
@@ -4169,22 +4169,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.612244898</v>
       </c>
       <c r="C17" t="n">
-        <v>101447.8004535126</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061268</v>
+        <v>3681.632653061223</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
-        <v>7344.444444446824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4194,22 +4194,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
-        <v>36264.08163265303</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>36264.08163265323</v>
       </c>
     </row>
     <row r="19">
@@ -4222,7 +4222,7 @@
         <v>838847.7278911564</v>
       </c>
       <c r="C19" t="n">
-        <v>188573.2244897958</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>6381.496598639455</v>
@@ -4234,7 +4234,7 @@
         <v>689201.6326530612</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>188573.2244897958</v>
       </c>
     </row>
     <row r="20">
@@ -4269,10 +4269,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204082</v>
       </c>
       <c r="C21" t="n">
-        <v>97913.02040816321</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>3313.469387755101</v>
@@ -4284,7 +4284,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>97913.0204081632</v>
       </c>
     </row>
     <row r="22">
@@ -4294,22 +4294,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
-        <v>72528.16326530607</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="23">
@@ -4319,22 +4319,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476362</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>25384.85714285726</v>
       </c>
     </row>
     <row r="24">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709794.2312925169</v>
+        <v>709794.231292517</v>
       </c>
       <c r="C24" t="n">
-        <v>159561.9591836734</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>5399.727891156461</v>
@@ -4359,7 +4359,7 @@
         <v>583170.6122448979</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>159561.9591836733</v>
       </c>
     </row>
     <row r="25">
@@ -4369,10 +4369,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596872.4217687075</v>
+        <v>596872.4217687076</v>
       </c>
       <c r="C25" t="n">
-        <v>134177.1020408162</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>4540.680272108842</v>
@@ -4384,7 +4384,7 @@
         <v>490393.4693877551</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134177.1020408162</v>
       </c>
     </row>
     <row r="26">
@@ -4394,22 +4394,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
-        <v>72528.16326530607</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="27">
@@ -4422,7 +4422,7 @@
         <v>1613.168707482993</v>
       </c>
       <c r="C27" t="n">
-        <v>362.6408163265305</v>
+        <v>362.6408163265304</v>
       </c>
       <c r="D27" t="n">
         <v>12.27210884353741</v>
@@ -4447,10 +4447,10 @@
         <v>8065.843537414965</v>
       </c>
       <c r="C28" t="n">
-        <v>1813.204081632652</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>61.36054421768704</v>
+        <v>61.36054421768706</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>6626.938775510203</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1813.204081632652</v>
       </c>
     </row>
     <row r="29">
@@ -4469,22 +4469,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979592</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918375</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224503</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>43516.89795918364</v>
       </c>
     </row>
     <row r="30">
@@ -4497,10 +4497,10 @@
         <v>48395.06122448979</v>
       </c>
       <c r="C30" t="n">
-        <v>10879.22448979591</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>368.1632653061224</v>
+        <v>368.1632653061223</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -4509,7 +4509,7 @@
         <v>39761.63265306122</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10879.22448979591</v>
       </c>
     </row>
     <row r="31">
@@ -4519,10 +4519,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204082</v>
       </c>
       <c r="C31" t="n">
-        <v>97913.02040816321</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>3313.469387755101</v>
@@ -4534,7 +4534,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>97913.0204081632</v>
       </c>
     </row>
     <row r="32">
@@ -4544,13 +4544,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>96790.12244897957</v>
+        <v>96790.12244897959</v>
       </c>
       <c r="C32" t="n">
         <v>21758.44897959182</v>
       </c>
       <c r="D32" t="n">
-        <v>736.3265306122447</v>
+        <v>736.3265306122446</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -4572,7 +4572,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -4584,7 +4584,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="34">
@@ -4597,7 +4597,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -4609,7 +4609,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
     </row>
     <row r="35">
@@ -4619,19 +4619,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4722,7 +4722,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222223</v>
@@ -4734,7 +4734,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="40">
@@ -4747,7 +4747,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -4759,7 +4759,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -4772,7 +4772,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222223</v>
@@ -4784,7 +4784,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
     <row r="42">
@@ -4822,7 +4822,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222223</v>
@@ -4834,7 +4834,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
     </row>
   </sheetData>
@@ -4895,10 +4895,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>227826.7573696169</v>
+        <v>119892.8027210869</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6917006.575963718</v>
+        <v>7024940.530612244</v>
       </c>
     </row>
     <row r="3">
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703842</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333263</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>5.122274160385134e-08</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -4945,10 +4945,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333319</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -4970,13 +4970,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C6" t="n">
         <v>2186916.666666667</v>
@@ -5095,19 +5095,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265304</v>
+        <v>362640.8163265323</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353766</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -5120,19 +5120,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258106.9931972789</v>
+        <v>258106.9931972792</v>
       </c>
       <c r="C11" t="n">
-        <v>58022.53061224493</v>
+        <v>58022.53061224442</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965995</v>
+        <v>1963.537414965914</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163264</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5170,19 +5170,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>47143.30612244895</v>
+        <v>47143.3061224492</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659864</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -5195,7 +5195,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145185.1836734694</v>
+        <v>145185.1836734695</v>
       </c>
       <c r="C14" t="n">
         <v>32637.67346938773</v>
@@ -5220,19 +5220,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673477</v>
       </c>
       <c r="C15" t="n">
-        <v>163188.3673469387</v>
+        <v>163188.3673469385</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591804</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959181</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5245,22 +5245,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986394</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074830046</v>
+        <v>9817.68707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
-        <v>290112.6530612252</v>
+        <v>290112.6530612243</v>
       </c>
     </row>
     <row r="17">
@@ -5270,19 +5270,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.6122448985</v>
       </c>
       <c r="C17" t="n">
-        <v>108792.2448979595</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061268</v>
+        <v>3681.632653061224</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5295,22 +5295,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
-        <v>36264.08163265303</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>36264.08163265323</v>
       </c>
     </row>
     <row r="19">
@@ -5320,19 +5320,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>838847.7278911564</v>
+        <v>838847.7278911574</v>
       </c>
       <c r="C19" t="n">
-        <v>188573.2244897958</v>
+        <v>188573.2244897944</v>
       </c>
       <c r="D19" t="n">
-        <v>6381.496598639455</v>
+        <v>6381.496598639223</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>689201.6326530612</v>
+        <v>689201.6326530607</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -5345,10 +5345,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16131.68707482993</v>
+        <v>16131.68707482995</v>
       </c>
       <c r="C20" t="n">
-        <v>3626.408163265304</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>122.7210884353741</v>
@@ -5360,7 +5360,7 @@
         <v>13253.87755102041</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3626.408163265304</v>
       </c>
     </row>
     <row r="21">
@@ -5395,22 +5395,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="23">
@@ -5420,19 +5420,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>25384.85714285726</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476364</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>596872.4217687075</v>
       </c>
       <c r="C25" t="n">
-        <v>134177.1020408163</v>
+        <v>134177.1020408162</v>
       </c>
       <c r="D25" t="n">
         <v>4540.680272108842</v>
@@ -5495,22 +5495,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="27">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979591</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918375</v>
+        <v>43516.89795918365</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224503</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -5620,7 +5620,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204086</v>
       </c>
       <c r="C31" t="n">
         <v>97913.02040816321</v>
@@ -5720,22 +5720,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222223</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -5748,7 +5748,7 @@
         <v>79597.77777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222223</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222223</v>
@@ -5760,7 +5760,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -5770,19 +5770,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666671</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -5996,10 +5996,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>586762.9251700692</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6558070.408163265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -6021,10 +6021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.37037037</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>7144833.333333274</v>
       </c>
     </row>
     <row r="4">
@@ -6046,16 +6046,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703717</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333302</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.071020960807801e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -6071,13 +6071,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962963</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444444</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222222</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -6096,10 +6096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>2013070.408163206</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>173846.2585034595</v>
       </c>
     </row>
     <row r="7">
@@ -6196,19 +6196,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265305</v>
+        <v>362640.8163265323</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353766</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -6221,22 +6221,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258106.993197279</v>
+        <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>58022.53061224486</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965985</v>
+        <v>1963.537414965986</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
-        <v>58022.53061224487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -6246,19 +6246,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>129053.4965986394</v>
+        <v>129053.4965986396</v>
       </c>
       <c r="C12" t="n">
-        <v>29011.26530612244</v>
+        <v>29011.26530612213</v>
       </c>
       <c r="D12" t="n">
-        <v>981.7687074829927</v>
+        <v>981.768707482943</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>106031.0204081633</v>
+        <v>106031.0204081631</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -6271,22 +6271,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>47143.3061224492</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659863</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
-        <v>47143.30612244896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -6296,19 +6296,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>145185.1836734694</v>
+        <v>145185.1836734695</v>
       </c>
       <c r="C14" t="n">
-        <v>32637.67346938774</v>
+        <v>32637.6734693874</v>
       </c>
       <c r="D14" t="n">
-        <v>1104.489795918367</v>
+        <v>1104.489795918311</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>119284.8979591837</v>
+        <v>119284.8979591835</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -6321,22 +6321,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673477</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>163188.367346937</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591834</v>
+        <v>5522.448979591555</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959175</v>
       </c>
       <c r="G15" t="n">
-        <v>163188.3673469387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -6346,19 +6346,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986394</v>
       </c>
       <c r="C16" t="n">
-        <v>290112.6530612244</v>
+        <v>290112.6530612243</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074829926</v>
+        <v>9817.68707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -6371,22 +6371,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.6122448979</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061268</v>
+        <v>3681.632653061224</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
-        <v>108792.2448979592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -6396,22 +6396,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
-        <v>36264.08163265305</v>
+        <v>36264.08163265323</v>
       </c>
     </row>
     <row r="19">
@@ -6424,10 +6424,10 @@
         <v>838847.7278911564</v>
       </c>
       <c r="C19" t="n">
-        <v>188573.2244897959</v>
+        <v>188573.2244897958</v>
       </c>
       <c r="D19" t="n">
-        <v>6381.496598639453</v>
+        <v>6381.496598639455</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>16131.68707482993</v>
       </c>
       <c r="C20" t="n">
-        <v>3626.408163265305</v>
+        <v>3626.408163265304</v>
       </c>
       <c r="D20" t="n">
         <v>122.7210884353741</v>
@@ -6474,10 +6474,10 @@
         <v>435555.5510204081</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>97913.02040816321</v>
       </c>
       <c r="D21" t="n">
-        <v>3313.4693877551</v>
+        <v>3313.469387755101</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -6486,7 +6486,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G21" t="n">
-        <v>97913.02040816324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -6496,22 +6496,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
-        <v>72528.1632653061</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="23">
@@ -6521,22 +6521,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>25384.85714285726</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476186</v>
+        <v>859.0476190476364</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
-        <v>25384.85714285713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -6552,7 +6552,7 @@
         <v>159561.9591836734</v>
       </c>
       <c r="D24" t="n">
-        <v>5399.72789115646</v>
+        <v>5399.727891156461</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -6571,10 +6571,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596872.4217687078</v>
+        <v>596872.4217687075</v>
       </c>
       <c r="C25" t="n">
-        <v>134177.1020408163</v>
+        <v>134177.1020408162</v>
       </c>
       <c r="D25" t="n">
         <v>4540.680272108842</v>
@@ -6596,22 +6596,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
-        <v>72528.1632653061</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>72528.16326530646</v>
       </c>
     </row>
     <row r="27">
@@ -6652,7 +6652,7 @@
         <v>1813.204081632652</v>
       </c>
       <c r="D28" t="n">
-        <v>61.36054421768704</v>
+        <v>61.36054421768706</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -6671,19 +6671,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979591</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918366</v>
+        <v>43516.89795918365</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224503</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -6699,10 +6699,10 @@
         <v>48395.06122448979</v>
       </c>
       <c r="C30" t="n">
-        <v>10879.22448979592</v>
+        <v>10879.22448979591</v>
       </c>
       <c r="D30" t="n">
-        <v>368.1632653061222</v>
+        <v>368.1632653061224</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -6724,10 +6724,10 @@
         <v>435555.5510204081</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>97913.02040816321</v>
       </c>
       <c r="D31" t="n">
-        <v>3313.4693877551</v>
+        <v>3313.469387755101</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -6736,7 +6736,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G31" t="n">
-        <v>97913.02040816324</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -6749,10 +6749,10 @@
         <v>96790.12244897957</v>
       </c>
       <c r="C32" t="n">
-        <v>21758.44897959183</v>
+        <v>21758.44897959182</v>
       </c>
       <c r="D32" t="n">
-        <v>736.3265306122445</v>
+        <v>736.3265306122447</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -6799,7 +6799,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -6811,7 +6811,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -6871,19 +6871,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -6974,7 +6974,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -6986,7 +6986,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -7024,7 +7024,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222222</v>
@@ -7036,7 +7036,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7097,10 +7097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -7122,10 +7122,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
-        <v>5761039.813151896</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -7137,7 +7137,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1383793.520181436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -7147,7 +7147,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703671</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -7162,7 +7162,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333302</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="5">
@@ -7172,7 +7172,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.6111111107</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -7181,13 +7181,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925924</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -7197,10 +7197,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1016269.882086164</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -7212,7 +7212,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.666666666</v>
+        <v>1170646.784580502</v>
       </c>
     </row>
     <row r="7">
@@ -7300,10 +7300,10 @@
         <v>1613168.707482993</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265305</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353746</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -7312,7 +7312,7 @@
         <v>1325387.755102041</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>362640.8163265304</v>
       </c>
     </row>
     <row r="11">
@@ -7322,13 +7322,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>258106.993197279</v>
+        <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>58022.53061224486</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965985</v>
+        <v>1963.537414965994</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -7337,7 +7337,7 @@
         <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
-        <v>58022.53061224487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -7353,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>981.7687074829927</v>
+        <v>981.768707482997</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -7362,7 +7362,7 @@
         <v>106031.0204081633</v>
       </c>
       <c r="G12" t="n">
-        <v>29011.26530612244</v>
+        <v>29011.26530612243</v>
       </c>
     </row>
     <row r="13">
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659863</v>
+        <v>1595.37414965987</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>172300.4081632653</v>
       </c>
       <c r="G13" t="n">
-        <v>47143.30612244896</v>
+        <v>47143.30612244895</v>
       </c>
     </row>
     <row r="14">
@@ -7400,10 +7400,10 @@
         <v>145185.1836734694</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32637.67346938773</v>
       </c>
       <c r="D14" t="n">
-        <v>1104.489795918367</v>
+        <v>1104.489795918372</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -7412,7 +7412,7 @@
         <v>119284.8979591837</v>
       </c>
       <c r="G14" t="n">
-        <v>32637.67346938774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -7425,10 +7425,10 @@
         <v>725925.9183673469</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>163188.3673469387</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591834</v>
+        <v>5522.448979591858</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -7437,7 +7437,7 @@
         <v>596424.4897959183</v>
       </c>
       <c r="G15" t="n">
-        <v>163188.3673469387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074829926</v>
+        <v>9817.68707482997</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -7462,7 +7462,7 @@
         <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
-        <v>290112.6530612244</v>
+        <v>290112.6530612243</v>
       </c>
     </row>
     <row r="17">
@@ -7475,10 +7475,10 @@
         <v>483950.6122448979</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061223</v>
+        <v>3681.632653061239</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -7487,7 +7487,7 @@
         <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
-        <v>108792.2448979592</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353746</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -7512,7 +7512,7 @@
         <v>132538.7755102041</v>
       </c>
       <c r="G18" t="n">
-        <v>36264.08163265305</v>
+        <v>36264.08163265303</v>
       </c>
     </row>
     <row r="19">
@@ -7528,7 +7528,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>6381.496598639453</v>
+        <v>6381.496598639455</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -7537,7 +7537,7 @@
         <v>689201.6326530612</v>
       </c>
       <c r="G19" t="n">
-        <v>188573.2244897959</v>
+        <v>188573.2244897958</v>
       </c>
     </row>
     <row r="20">
@@ -7550,10 +7550,10 @@
         <v>16131.68707482993</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3626.408163265304</v>
       </c>
       <c r="D20" t="n">
-        <v>122.7210884353741</v>
+        <v>122.7210884353746</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -7562,7 +7562,7 @@
         <v>13253.87755102041</v>
       </c>
       <c r="G20" t="n">
-        <v>3626.408163265305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -7575,10 +7575,10 @@
         <v>435555.5510204081</v>
       </c>
       <c r="C21" t="n">
-        <v>97913.02040816324</v>
+        <v>97913.02040816321</v>
       </c>
       <c r="D21" t="n">
-        <v>3313.4693877551</v>
+        <v>3313.469387755101</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -7597,13 +7597,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965988</v>
+        <v>322633.7414965986</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707492</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -7612,7 +7612,7 @@
         <v>265077.5510204081</v>
       </c>
       <c r="G22" t="n">
-        <v>72528.1632653061</v>
+        <v>72528.16326530607</v>
       </c>
     </row>
     <row r="23">
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238096</v>
+        <v>112921.8095238095</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>25384.85714285713</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476186</v>
+        <v>859.0476190476223</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -7637,7 +7637,7 @@
         <v>92777.14285714286</v>
       </c>
       <c r="G23" t="n">
-        <v>25384.85714285713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -7650,10 +7650,10 @@
         <v>709794.2312925169</v>
       </c>
       <c r="C24" t="n">
-        <v>159561.9591836734</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5399.72789115646</v>
+        <v>5399.727891156484</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>583170.6122448979</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>159561.9591836734</v>
       </c>
     </row>
     <row r="25">
@@ -7675,10 +7675,10 @@
         <v>596872.4217687075</v>
       </c>
       <c r="C25" t="n">
-        <v>134177.1020408163</v>
+        <v>134177.1020408162</v>
       </c>
       <c r="D25" t="n">
-        <v>4540.680272108842</v>
+        <v>4540.680272108862</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -7697,13 +7697,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965988</v>
+        <v>322633.7414965986</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707492</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -7712,7 +7712,7 @@
         <v>265077.5510204081</v>
       </c>
       <c r="G26" t="n">
-        <v>72528.1632653061</v>
+        <v>72528.16326530607</v>
       </c>
     </row>
     <row r="27">
@@ -7725,7 +7725,7 @@
         <v>1613.168707482993</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>362.6408163265304</v>
       </c>
       <c r="D27" t="n">
         <v>12.27210884353741</v>
@@ -7737,7 +7737,7 @@
         <v>1325.387755102041</v>
       </c>
       <c r="G27" t="n">
-        <v>362.6408163265305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -7750,10 +7750,10 @@
         <v>8065.843537414965</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1813.204081632652</v>
       </c>
       <c r="D28" t="n">
-        <v>61.36054421768704</v>
+        <v>61.36054421768731</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -7762,7 +7762,7 @@
         <v>6626.938775510203</v>
       </c>
       <c r="G28" t="n">
-        <v>1813.204081632652</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -7775,10 +7775,10 @@
         <v>193580.2448979591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>43516.89795918365</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224489</v>
+        <v>1472.653061224495</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -7787,7 +7787,7 @@
         <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
-        <v>43516.89795918366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -7800,10 +7800,10 @@
         <v>48395.06122448979</v>
       </c>
       <c r="C30" t="n">
-        <v>10879.22448979592</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>368.1632653061222</v>
+        <v>368.1632653061238</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -7812,7 +7812,7 @@
         <v>39761.63265306122</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>10879.22448979591</v>
       </c>
     </row>
     <row r="31">
@@ -7828,7 +7828,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3313.4693877551</v>
+        <v>3313.469387755115</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -7837,7 +7837,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G31" t="n">
-        <v>97913.02040816324</v>
+        <v>97913.02040816321</v>
       </c>
     </row>
     <row r="32">
@@ -7850,10 +7850,10 @@
         <v>96790.12244897957</v>
       </c>
       <c r="C32" t="n">
-        <v>21758.44897959183</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>736.3265306122445</v>
+        <v>736.3265306122477</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -7862,7 +7862,7 @@
         <v>79523.26530612244</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21758.44897959182</v>
       </c>
     </row>
     <row r="33">
@@ -7900,7 +7900,7 @@
         <v>93644.44444444445</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>86955.55555555556</v>
       </c>
       <c r="D34" t="n">
         <v>86955.55555555556</v>
@@ -7912,7 +7912,7 @@
         <v>401333.3333333333</v>
       </c>
       <c r="G34" t="n">
-        <v>86955.55555555556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -7922,19 +7922,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -7950,7 +7950,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D36" t="n">
         <v>73912.22222222222</v>
@@ -7962,7 +7962,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G36" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -7972,22 +7972,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111112</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -8000,7 +8000,7 @@
         <v>187288.8888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111111</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>173911.1111111111</v>
@@ -8012,7 +8012,7 @@
         <v>802666.6666666666</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="39">
@@ -8025,7 +8025,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -8037,7 +8037,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -8050,7 +8050,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -8062,7 +8062,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -8075,7 +8075,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -8087,7 +8087,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -8100,7 +8100,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -8112,7 +8112,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333331</v>
+        <v>7144833.333333333</v>
       </c>
     </row>
     <row r="3">
@@ -8223,7 +8223,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -8248,16 +8248,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703706</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333332467</v>
+        <v>7144833.333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>8.18346871748569e-07</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.257285475730896e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -8273,22 +8273,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.6111111107</v>
+        <v>242990.7407407408</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1244755.717913825</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925924</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>942160.9487528437</v>
       </c>
     </row>
     <row r="6">
@@ -8298,10 +8298,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407409</v>
       </c>
       <c r="C6" t="n">
-        <v>1585305.563718822</v>
+        <v>2186916.666666667</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>601611.1029478442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353746</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -8451,7 +8451,7 @@
         <v>129053.4965986394</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>29011.26530612243</v>
       </c>
       <c r="D12" t="n">
         <v>981.7687074829929</v>
@@ -8463,7 +8463,7 @@
         <v>106031.0204081633</v>
       </c>
       <c r="G12" t="n">
-        <v>29011.26530612243</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -8479,7 +8479,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659864</v>
+        <v>1595.37414965987</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -8554,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.68707482993</v>
+        <v>9817.68707482997</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -8573,22 +8573,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448979</v>
+        <v>483950.6122448985</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>108792.244897958</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061224</v>
+        <v>3681.632653061036</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306122</v>
+        <v>397616.3265306117</v>
       </c>
       <c r="G17" t="n">
-        <v>108792.2448979591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -8601,10 +8601,10 @@
         <v>161316.8707482993</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>36264.08163265303</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353746</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>132538.7755102041</v>
       </c>
       <c r="G18" t="n">
-        <v>36264.08163265303</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -8648,22 +8648,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16131.68707482993</v>
+        <v>16131.68707482995</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>122.7210884353741</v>
+        <v>122.7210884353679</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>13253.87755102041</v>
+        <v>13253.87755102039</v>
       </c>
       <c r="G20" t="n">
-        <v>3626.408163265304</v>
+        <v>3626.408163265266</v>
       </c>
     </row>
     <row r="21">
@@ -8673,22 +8673,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204086</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>3313.469387755101</v>
+        <v>3313.469387754933</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>357854.693877551</v>
+        <v>357854.6938775505</v>
       </c>
       <c r="G21" t="n">
-        <v>97913.02040816321</v>
+        <v>97913.02040816221</v>
       </c>
     </row>
     <row r="22">
@@ -8701,10 +8701,10 @@
         <v>322633.7414965986</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>72528.16326530607</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707492</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>265077.5510204081</v>
       </c>
       <c r="G22" t="n">
-        <v>72528.16326530607</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -8726,10 +8726,10 @@
         <v>112921.8095238095</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476223</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -8738,7 +8738,7 @@
         <v>92777.14285714286</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>25384.85714285713</v>
       </c>
     </row>
     <row r="24">
@@ -8748,22 +8748,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>709794.2312925169</v>
+        <v>709794.2312925177</v>
       </c>
       <c r="C24" t="n">
-        <v>159561.9591836734</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>5399.727891156461</v>
+        <v>5399.727891156186</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>583170.6122448979</v>
+        <v>583170.6122448972</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>159561.9591836717</v>
       </c>
     </row>
     <row r="25">
@@ -8773,22 +8773,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>596872.4217687075</v>
+        <v>596872.4217687082</v>
       </c>
       <c r="C25" t="n">
-        <v>134177.1020408162</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>4540.680272108842</v>
+        <v>4540.680272108578</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>490393.4693877551</v>
+        <v>490393.4693877543</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>134177.1020408147</v>
       </c>
     </row>
     <row r="26">
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707492</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -8829,7 +8829,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>12.27210884353741</v>
+        <v>12.27210884353746</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -8876,10 +8876,10 @@
         <v>193580.2448979591</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>43516.89795918365</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224489</v>
+        <v>1472.653061224495</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -8888,7 +8888,7 @@
         <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
-        <v>43516.89795918365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -8898,19 +8898,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>48395.06122448979</v>
+        <v>48395.06122448984</v>
       </c>
       <c r="C30" t="n">
-        <v>10879.22448979591</v>
+        <v>10879.2244897958</v>
       </c>
       <c r="D30" t="n">
-        <v>368.1632653061224</v>
+        <v>368.1632653061036</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>39761.63265306122</v>
+        <v>39761.63265306117</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -8923,22 +8923,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>435555.5510204081</v>
+        <v>435555.5510204086</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>3313.469387755101</v>
+        <v>3313.469387754933</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>357854.693877551</v>
+        <v>357854.6938775505</v>
       </c>
       <c r="G31" t="n">
-        <v>97913.02040816321</v>
+        <v>97913.02040816221</v>
       </c>
     </row>
     <row r="32">
@@ -8954,7 +8954,7 @@
         <v>21758.44897959182</v>
       </c>
       <c r="D32" t="n">
-        <v>736.3265306122447</v>
+        <v>736.3265306122477</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -8976,7 +8976,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -8988,7 +8988,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -9023,22 +9023,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -9073,22 +9073,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -9126,7 +9126,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -9138,7 +9138,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -9151,7 +9151,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>130433.3333333333</v>
@@ -9163,7 +9163,7 @@
         <v>602000</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
     </row>
     <row r="41">
@@ -9176,7 +9176,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D41" t="n">
         <v>73912.22222222222</v>
@@ -9188,7 +9188,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G41" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -9201,7 +9201,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -9213,7 +9213,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -9226,7 +9226,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D43" t="n">
         <v>73912.22222222222</v>
@@ -9238,7 +9238,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G43" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9299,10 +9299,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703621</v>
       </c>
       <c r="C2" t="n">
-        <v>3786230.863038562</v>
+        <v>5737548.359637167</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -9314,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3358602.470294773</v>
+        <v>1407284.973696154</v>
       </c>
     </row>
     <row r="3">
@@ -9324,7 +9324,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.37037037</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9349,7 +9349,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703695</v>
+        <v>793870.3703703675</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -9358,13 +9358,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.257285475730896e-08</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333322</v>
+        <v>7144833.333333328</v>
       </c>
     </row>
     <row r="5">
@@ -9374,7 +9374,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.6111111102</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -9383,13 +9383,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925924</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -9399,7 +9399,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407408</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -9414,7 +9414,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.66666668</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="7">
@@ -9502,7 +9502,7 @@
         <v>1613168.707482993</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>362640.8163265304</v>
       </c>
       <c r="D10" t="n">
         <v>12272.10884353741</v>
@@ -9514,7 +9514,7 @@
         <v>1325387.755102041</v>
       </c>
       <c r="G10" t="n">
-        <v>362640.8163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -9552,7 +9552,7 @@
         <v>129053.4965986394</v>
       </c>
       <c r="C12" t="n">
-        <v>29011.26530612243</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>981.7687074829929</v>
@@ -9564,7 +9564,7 @@
         <v>106031.0204081633</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>29011.26530612243</v>
       </c>
     </row>
     <row r="13">
@@ -9602,7 +9602,7 @@
         <v>145185.1836734694</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>32637.67346938773</v>
       </c>
       <c r="D14" t="n">
         <v>1104.489795918367</v>
@@ -9614,7 +9614,7 @@
         <v>119284.8979591837</v>
       </c>
       <c r="G14" t="n">
-        <v>32637.67346938773</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -9677,7 +9677,7 @@
         <v>483950.6122448979</v>
       </c>
       <c r="C17" t="n">
-        <v>108792.2448979591</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>3681.632653061224</v>
@@ -9689,7 +9689,7 @@
         <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>108792.2448979591</v>
       </c>
     </row>
     <row r="18">
@@ -9702,7 +9702,7 @@
         <v>161316.8707482993</v>
       </c>
       <c r="C18" t="n">
-        <v>36264.08163265303</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>1227.210884353741</v>
@@ -9714,7 +9714,7 @@
         <v>132538.7755102041</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>36264.08163265303</v>
       </c>
     </row>
     <row r="19">
@@ -9752,7 +9752,7 @@
         <v>16131.68707482993</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3626.408163265304</v>
       </c>
       <c r="D20" t="n">
         <v>122.7210884353741</v>
@@ -9764,7 +9764,7 @@
         <v>13253.87755102041</v>
       </c>
       <c r="G20" t="n">
-        <v>3626.408163265304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -9777,7 +9777,7 @@
         <v>435555.5510204081</v>
       </c>
       <c r="C21" t="n">
-        <v>97913.02040816321</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>3313.469387755101</v>
@@ -9789,7 +9789,7 @@
         <v>357854.693877551</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>97913.02040816321</v>
       </c>
     </row>
     <row r="22">
@@ -10052,7 +10052,7 @@
         <v>96790.12244897957</v>
       </c>
       <c r="C32" t="n">
-        <v>21758.44897959182</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>736.3265306122447</v>
@@ -10064,7 +10064,7 @@
         <v>79523.26530612244</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>21758.44897959182</v>
       </c>
     </row>
     <row r="33">
@@ -10077,7 +10077,7 @@
         <v>140466.6666666667</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>130433.3333333333</v>
       </c>
       <c r="D33" t="n">
         <v>130433.3333333333</v>
@@ -10089,7 +10089,7 @@
         <v>602000</v>
       </c>
       <c r="G33" t="n">
-        <v>130433.3333333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -10174,22 +10174,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -10227,7 +10227,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
       <c r="D39" t="n">
         <v>73912.22222222222</v>
@@ -10239,7 +10239,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G39" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -10302,7 +10302,7 @@
         <v>79597.7777777778</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222222</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>73912.22222222222</v>
@@ -10314,7 +10314,7 @@
         <v>341133.3333333333</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>73912.22222222222</v>
       </c>
     </row>
     <row r="43">
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703621</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -10415,7 +10415,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.33333334</v>
+        <v>7144833.333333321</v>
       </c>
     </row>
     <row r="3">
@@ -10425,7 +10425,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.37037037</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -10450,10 +10450,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703702</v>
+        <v>793870.3703703675</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1505800.384580465</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333331</v>
+        <v>5639032.948752863</v>
       </c>
     </row>
     <row r="5">
@@ -10475,7 +10475,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.611111111</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -10484,13 +10484,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925926</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -10500,7 +10500,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407408</v>
+        <v>242990.7407407549</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>5.122274160385134e-08</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2186916.66666668</v>
+        <v>2186916.666666654</v>
       </c>
     </row>
     <row r="7">
@@ -11225,22 +11225,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -11275,22 +11275,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -11501,7 +11501,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703712</v>
+        <v>793870.3703703621</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.333333342</v>
+        <v>7144833.333333319</v>
       </c>
     </row>
     <row r="3">
@@ -11526,7 +11526,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -11541,7 +11541,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333331</v>
       </c>
     </row>
     <row r="4">
@@ -11551,7 +11551,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703738</v>
+        <v>793870.3703703817</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -11560,13 +11560,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.280568540096283e-08</v>
+        <v>5.122274160385134e-08</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333314</v>
+        <v>7144833.333333185</v>
       </c>
     </row>
     <row r="5">
@@ -11576,7 +11576,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.6111111101</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -11585,13 +11585,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925924</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666666</v>
       </c>
     </row>
     <row r="6">
@@ -11601,7 +11601,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -12326,22 +12326,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -12376,22 +12376,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -12602,13 +12602,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635096.2962962952</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444427</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222215</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -12627,13 +12627,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635096.2962962952</v>
+        <v>587464.074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444426</v>
+        <v>881196.1111111108</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222215</v>
+        <v>4405980.555555555</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -12652,13 +12652,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962938</v>
+        <v>635096.2962962961</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444405</v>
+        <v>952644.4444444438</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.222222203</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -12677,13 +12677,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.7222222221</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.611111111</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -12702,7 +12702,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925926</v>
+        <v>194392.5925925925</v>
       </c>
       <c r="C6" t="n">
         <v>291588.8888888888</v>
@@ -13703,7 +13703,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703708</v>
+        <v>793870.3703703621</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -13718,7 +13718,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>7144833.33333334</v>
+        <v>7144833.333333319</v>
       </c>
     </row>
     <row r="3">
@@ -13728,7 +13728,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -13753,7 +13753,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703675</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>7144833.333333333</v>
+        <v>7144833.333333327</v>
       </c>
     </row>
     <row r="5">
@@ -13778,7 +13778,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>692523.61111111</v>
+        <v>242990.7407407549</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -13787,13 +13787,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1615888.425925924</v>
+        <v>5.122274160385134e-08</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>2186916.666666596</v>
       </c>
     </row>
     <row r="6">
@@ -13803,7 +13803,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407407</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -14528,22 +14528,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.7777777778</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333333</v>
+        <v>341133.3333333335</v>
       </c>
       <c r="G35" t="n">
-        <v>73912.22222222222</v>
+        <v>73912.22222222226</v>
       </c>
     </row>
     <row r="36">
@@ -14578,22 +14578,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.8888888889</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.666666667</v>
+        <v>802666.6666666666</v>
       </c>
       <c r="G37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111111</v>
       </c>
     </row>
     <row r="38">
@@ -14804,13 +14804,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635096.2962962952</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444427</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222215</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -14829,13 +14829,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635096.2962962952</v>
+        <v>587464.074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444426</v>
+        <v>881196.1111111108</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222215</v>
+        <v>4405980.555555555</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -14854,13 +14854,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962938</v>
+        <v>635096.2962962961</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444405</v>
+        <v>952644.4444444438</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.222222203</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -14879,13 +14879,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.722222222</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.61111111</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -14904,7 +14904,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925926</v>
+        <v>194392.5925925925</v>
       </c>
       <c r="C6" t="n">
         <v>291588.8888888888</v>
@@ -15905,13 +15905,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>635096.2962962952</v>
+        <v>635096.2962962962</v>
       </c>
       <c r="C2" t="n">
-        <v>952644.4444444427</v>
+        <v>952644.444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>4763222.222222215</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -15930,13 +15930,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635096.2962962952</v>
+        <v>587464.074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>952644.4444444426</v>
+        <v>881196.1111111108</v>
       </c>
       <c r="D3" t="n">
-        <v>4763222.222222215</v>
+        <v>4405980.555555555</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -15955,13 +15955,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962938</v>
+        <v>635096.2962962961</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444405</v>
+        <v>952644.4444444438</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.222222203</v>
+        <v>4763222.22222222</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -15980,13 +15980,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>179813.1481481481</v>
+        <v>194392.5925925926</v>
       </c>
       <c r="C5" t="n">
-        <v>269719.722222222</v>
+        <v>291588.8888888888</v>
       </c>
       <c r="D5" t="n">
-        <v>1348598.61111111</v>
+        <v>1457944.444444444</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -16005,7 +16005,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>194392.5925925926</v>
+        <v>194392.5925925925</v>
       </c>
       <c r="C6" t="n">
         <v>291588.8888888888</v>
@@ -17006,13 +17006,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>1190805.555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>5954027.777777777</v>
+        <v>5954027.777777776</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -17031,13 +17031,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>726489.2992592601</v>
+        <v>587464.074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>1089733.94888889</v>
+        <v>881196.1111111109</v>
       </c>
       <c r="D3" t="n">
-        <v>5448669.74444445</v>
+        <v>4405980.555555555</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -17056,13 +17056,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>635096.2962962938</v>
+        <v>759542.0770370348</v>
       </c>
       <c r="C4" t="n">
-        <v>952644.4444444407</v>
+        <v>1139313.115555552</v>
       </c>
       <c r="D4" t="n">
-        <v>4763222.222222203</v>
+        <v>5696565.57777776</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -17081,13 +17081,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962962</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444443</v>
+        <v>364486.111111111</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222221</v>
+        <v>1822430.555555555</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -17106,13 +17106,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>364486.1111111115</v>
+        <v>364486.1111111109</v>
       </c>
       <c r="D6" t="n">
-        <v>1822430.555555558</v>
+        <v>1822430.555555555</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -17781,19 +17781,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666675</v>
       </c>
       <c r="C33" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="D33" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>602000.0000000003</v>
+        <v>602000.0000000034</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -17806,19 +17806,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444451</v>
+        <v>93644.44444444498</v>
       </c>
       <c r="C34" t="n">
-        <v>86955.55555555562</v>
+        <v>86955.55555555606</v>
       </c>
       <c r="D34" t="n">
-        <v>86955.55555555562</v>
+        <v>86955.55555555606</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>401333.3333333335</v>
+        <v>401333.3333333355</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -17831,19 +17831,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C35" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D35" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -17856,19 +17856,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C36" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D36" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -17881,19 +17881,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>187288.888888889</v>
+        <v>187288.88888889</v>
       </c>
       <c r="C37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111121</v>
       </c>
       <c r="D37" t="n">
-        <v>173911.1111111112</v>
+        <v>173911.1111111121</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>802666.6666666671</v>
+        <v>802666.6666666711</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -17931,19 +17931,19 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D39" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -17956,19 +17956,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>140466.6666666667</v>
+        <v>140466.6666666675</v>
       </c>
       <c r="C40" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="D40" t="n">
-        <v>130433.3333333334</v>
+        <v>130433.3333333341</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>602000.0000000003</v>
+        <v>602000.0000000034</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -17981,19 +17981,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C41" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D41" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -18006,19 +18006,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D42" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -18031,19 +18031,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777822</v>
       </c>
       <c r="C43" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="D43" t="n">
-        <v>73912.22222222226</v>
+        <v>73912.22222222264</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>341133.3333333335</v>
+        <v>341133.3333333352</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -18107,13 +18107,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
-        <v>7144833.333333331</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>5954027.777777777</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -18132,13 +18132,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>587464.074074074</v>
       </c>
       <c r="C3" t="n">
-        <v>1190805.555555555</v>
+        <v>881196.1111111109</v>
       </c>
       <c r="D3" t="n">
-        <v>5954027.777777777</v>
+        <v>4405980.555555555</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -18157,13 +18157,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>778855.7185185178</v>
       </c>
       <c r="C4" t="n">
-        <v>1190805.555555553</v>
+        <v>1168283.577777776</v>
       </c>
       <c r="D4" t="n">
-        <v>5954027.777777764</v>
+        <v>5841417.888888882</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -18182,13 +18182,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962962</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444443</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -18207,10 +18207,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -18932,7 +18932,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C35" t="n">
         <v>73912.22222222226</v>
@@ -18957,7 +18957,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -19007,19 +19007,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187288.88888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>802666.6666666711</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -19032,7 +19032,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222226</v>
@@ -19082,7 +19082,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777781</v>
+        <v>79597.77777777782</v>
       </c>
       <c r="C41" t="n">
         <v>73912.22222222226</v>
@@ -19208,7 +19208,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>7144833.333333331</v>
@@ -19233,13 +19233,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>746238.1481481481</v>
       </c>
       <c r="C3" t="n">
-        <v>1190805.555555555</v>
+        <v>1119357.222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>5954027.777777777</v>
+        <v>5596786.11111111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -19258,13 +19258,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.37037037</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333328</v>
+        <v>1190805.555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>5954027.777777776</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -19283,13 +19283,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962962</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444443</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -19308,10 +19308,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -20008,7 +20008,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>93644.44444444451</v>
+        <v>93644.4444444445</v>
       </c>
       <c r="C34" t="n">
         <v>86955.55555555562</v>
@@ -20033,7 +20033,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C35" t="n">
         <v>73912.22222222226</v>
@@ -20058,7 +20058,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C36" t="n">
         <v>73912.22222222226</v>
@@ -20108,19 +20108,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187288.88888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>802666.6666666711</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -20133,7 +20133,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C39" t="n">
         <v>73912.22222222226</v>
@@ -20183,7 +20183,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C41" t="n">
         <v>73912.22222222226</v>
@@ -20208,7 +20208,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C42" t="n">
         <v>73912.22222222226</v>
@@ -20233,7 +20233,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>79597.77777777782</v>
+        <v>79597.77777777781</v>
       </c>
       <c r="C43" t="n">
         <v>73912.22222222226</v>
@@ -20309,7 +20309,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>7144833.333333331</v>
@@ -20334,13 +20334,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>746238.1481481481</v>
       </c>
       <c r="C3" t="n">
-        <v>1190805.555555555</v>
+        <v>1119357.222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>5954027.777777777</v>
+        <v>5596786.111111111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -20359,10 +20359,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.37037037</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333328</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -20384,13 +20384,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962962</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444443</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -20409,10 +20409,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -20509,19 +20509,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265304</v>
+        <v>362640.8163265323</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353766</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -20537,16 +20537,16 @@
         <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>58022.53061224493</v>
+        <v>58022.53061224486</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965995</v>
+        <v>1963.537414965986</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -20584,19 +20584,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>47143.30612244895</v>
+        <v>47143.3061224492</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659864</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -20634,19 +20634,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673467</v>
       </c>
       <c r="C15" t="n">
-        <v>163188.3673469387</v>
+        <v>163188.3673469385</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591804</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959181</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -20659,19 +20659,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986394</v>
       </c>
       <c r="C16" t="n">
-        <v>290112.6530612252</v>
+        <v>290112.6530612243</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074830046</v>
+        <v>9817.68707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -20684,19 +20684,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.6122448979</v>
       </c>
       <c r="C17" t="n">
-        <v>108792.2448979595</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061268</v>
+        <v>3681.632653061224</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -20709,19 +20709,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
-        <v>36264.08163265303</v>
+        <v>36264.08163265323</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -20809,19 +20809,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -20834,19 +20834,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>25384.85714285726</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476364</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -20909,19 +20909,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -20937,7 +20937,7 @@
         <v>1613.168707482993</v>
       </c>
       <c r="C27" t="n">
-        <v>362.6408163265303</v>
+        <v>362.6408163265304</v>
       </c>
       <c r="D27" t="n">
         <v>12.27210884353741</v>
@@ -20984,19 +20984,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979591</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918375</v>
+        <v>43516.89795918365</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224503</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -21209,19 +21209,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187288.88888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>802666.6666666711</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -21410,7 +21410,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>793870.3703703703</v>
+        <v>793870.3703703702</v>
       </c>
       <c r="C2" t="n">
         <v>7144833.333333331</v>
@@ -21435,13 +21435,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>793870.3703703703</v>
+        <v>746238.1481481481</v>
       </c>
       <c r="C3" t="n">
-        <v>7144833.333333331</v>
+        <v>1119357.222222222</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5596786.11111111</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -21460,10 +21460,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>793870.3703703687</v>
+        <v>793870.3703703701</v>
       </c>
       <c r="C4" t="n">
-        <v>7144833.333333317</v>
+        <v>7144833.333333331</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -21485,13 +21485,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>228411.2962962962</v>
+        <v>242990.7407407407</v>
       </c>
       <c r="C5" t="n">
-        <v>342616.9444444443</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D5" t="n">
-        <v>1713084.722222221</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -21510,10 +21510,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242990.7407407411</v>
+        <v>242990.7407407406</v>
       </c>
       <c r="C6" t="n">
-        <v>2186916.666666667</v>
+        <v>2186916.666666666</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -21610,19 +21610,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1613168.707482993</v>
+        <v>1613168.707482995</v>
       </c>
       <c r="C10" t="n">
-        <v>362640.8163265304</v>
+        <v>362640.8163265323</v>
       </c>
       <c r="D10" t="n">
-        <v>12272.10884353741</v>
+        <v>12272.10884353766</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1325387.755102041</v>
+        <v>1325387.755102043</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -21638,16 +21638,16 @@
         <v>258106.9931972789</v>
       </c>
       <c r="C11" t="n">
-        <v>58022.53061224493</v>
+        <v>58022.53061224486</v>
       </c>
       <c r="D11" t="n">
-        <v>1963.537414965995</v>
+        <v>1963.537414965986</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>212062.0408163266</v>
+        <v>212062.0408163265</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -21685,19 +21685,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>209711.9319727891</v>
+        <v>209711.9319727893</v>
       </c>
       <c r="C13" t="n">
-        <v>47143.30612244895</v>
+        <v>47143.3061224492</v>
       </c>
       <c r="D13" t="n">
-        <v>1595.374149659864</v>
+        <v>1595.374149659896</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>172300.4081632653</v>
+        <v>172300.4081632656</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -21735,19 +21735,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>725925.9183673469</v>
+        <v>725925.9183673467</v>
       </c>
       <c r="C15" t="n">
-        <v>163188.3673469387</v>
+        <v>163188.3673469385</v>
       </c>
       <c r="D15" t="n">
-        <v>5522.448979591836</v>
+        <v>5522.448979591804</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>596424.4897959183</v>
+        <v>596424.4897959181</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -21760,19 +21760,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1290534.965986395</v>
+        <v>1290534.965986394</v>
       </c>
       <c r="C16" t="n">
-        <v>290112.6530612252</v>
+        <v>290112.6530612243</v>
       </c>
       <c r="D16" t="n">
-        <v>9817.687074830046</v>
+        <v>9817.68707482993</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>1060310.204081634</v>
+        <v>1060310.204081632</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -21785,19 +21785,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>483950.6122448982</v>
+        <v>483950.6122448979</v>
       </c>
       <c r="C17" t="n">
-        <v>108792.2448979595</v>
+        <v>108792.2448979591</v>
       </c>
       <c r="D17" t="n">
-        <v>3681.632653061268</v>
+        <v>3681.632653061224</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>397616.3265306127</v>
+        <v>397616.3265306122</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -21810,19 +21810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>161316.8707482993</v>
+        <v>161316.8707482995</v>
       </c>
       <c r="C18" t="n">
-        <v>36264.08163265303</v>
+        <v>36264.08163265323</v>
       </c>
       <c r="D18" t="n">
-        <v>1227.210884353741</v>
+        <v>1227.210884353766</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>132538.7755102041</v>
+        <v>132538.7755102043</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -21910,19 +21910,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C22" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
       <c r="D22" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -21935,19 +21935,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>112921.8095238095</v>
+        <v>112921.8095238096</v>
       </c>
       <c r="C23" t="n">
-        <v>25384.85714285713</v>
+        <v>25384.85714285726</v>
       </c>
       <c r="D23" t="n">
-        <v>859.0476190476188</v>
+        <v>859.0476190476364</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>92777.14285714286</v>
+        <v>92777.14285714303</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -22010,19 +22010,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>322633.7414965986</v>
+        <v>322633.7414965989</v>
       </c>
       <c r="C26" t="n">
-        <v>72528.16326530607</v>
+        <v>72528.16326530646</v>
       </c>
       <c r="D26" t="n">
-        <v>2454.421768707482</v>
+        <v>2454.421768707532</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>265077.5510204081</v>
+        <v>265077.5510204086</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -22038,7 +22038,7 @@
         <v>1613.168707482993</v>
       </c>
       <c r="C27" t="n">
-        <v>362.6408163265303</v>
+        <v>362.6408163265304</v>
       </c>
       <c r="D27" t="n">
         <v>12.27210884353741</v>
@@ -22085,19 +22085,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>193580.2448979593</v>
+        <v>193580.2448979591</v>
       </c>
       <c r="C29" t="n">
-        <v>43516.89795918375</v>
+        <v>43516.89795918365</v>
       </c>
       <c r="D29" t="n">
-        <v>1472.653061224503</v>
+        <v>1472.653061224489</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>159046.530612245</v>
+        <v>159046.5306122449</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -22310,19 +22310,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>187288.88888889</v>
+        <v>187288.888888889</v>
       </c>
       <c r="C38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="D38" t="n">
-        <v>173911.1111111121</v>
+        <v>173911.1111111112</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>802666.6666666711</v>
+        <v>802666.6666666671</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
